--- a/biology/Écologie/Mission_régénération/Mission_régénération.xlsx
+++ b/biology/Écologie/Mission_régénération/Mission_régénération.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mission_r%C3%A9g%C3%A9n%C3%A9ration</t>
+          <t>Mission_régénération</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mission régénération (Kiss the Ground) est un film documentaire américain réalisé par Rebecca Harrell Tickell et Josh Tickell sorti en 2020.
-Ce film se base sur l'agriculture et les incidences sur le changement climatique[1], en expliquant les apports de l'agriculture régénératrice se distinguant de l'agroécologie[2]. Il montre que le changement de modèle agricole est possible, dont de nombreux exemples existent en France[3]. Il s'attache à expliquer la nécessaire conservation de la structure des sols[4].
+Ce film se base sur l'agriculture et les incidences sur le changement climatique, en expliquant les apports de l'agriculture régénératrice se distinguant de l'agroécologie. Il montre que le changement de modèle agricole est possible, dont de nombreux exemples existent en France. Il s'attache à expliquer la nécessaire conservation de la structure des sols.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mission_r%C3%A9g%C3%A9n%C3%A9ration</t>
+          <t>Mission_régénération</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mission_r%C3%A9g%C3%A9n%C3%A9ration</t>
+          <t>Mission_régénération</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Gisele Bündchen, Tom Brady et Stéphane Le Foll font partie des personnalités visibles dans le film, raconté par Woody Harrelson.
 </t>
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mission_r%C3%A9g%C3%A9n%C3%A9ration</t>
+          <t>Mission_régénération</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,8 +587,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Nomination
-Festival du film de Tribeca 2020 dans la section movie plus
+          <t>Nomination</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Festival du film de Tribeca 2020 dans la section movie plus
 Festival international du film de Jaipur 2021</t>
         </is>
       </c>
